--- a/medicine/Psychotrope/Hofmark_Brauerei/Hofmark_Brauerei.xlsx
+++ b/medicine/Psychotrope/Hofmark_Brauerei/Hofmark_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Hofmark Brauerei est une brasserie à Loifling, dans le district du Haut-Palatinat.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maître brasseur Paul C. Häring et son épouse reprennent une brasserie Hofmarkstraße 15 à Loifling en 1960. Ils introduisent leur propre bouteille à bouchon mécanique, augmentent le rendement et commencent à exporter la bière appelée maintenant "Hofmark". En 2007, la marque "Hofmark" est soigneusement repensée ; la bière Hofmark est principalement mise dans des fûts et des tonneaux.
 La taverne historique "Zum Hofmark-Bräu" rouvre ses portes le 15 mars 2008 avec un café en plein air bavarois installé dans la cour du château de Loifling après de nombreuses années et est depuis gérée par la brasserie elle-même.
@@ -545,7 +559,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bières
 Hell
